--- a/BalanceSheet/AVTR_bal.xlsx
+++ b/BalanceSheet/AVTR_bal.xlsx
@@ -250,19 +250,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-54300000.0</v>
+        <v>778000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-36200000.0</v>
+        <v>740000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>12900000.0</v>
+        <v>730000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-51700000.0</v>
+        <v>738000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5300000.0</v>
+        <v>686000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>711200000.0</v>
@@ -728,19 +728,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>30300000.0</v>
+        <v>706000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>42800000.0</v>
+        <v>679000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>36700000.0</v>
+        <v>625000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-35900000.0</v>
+        <v>581000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>67000000.0</v>
+        <v>611000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>560200000.0</v>
@@ -1226,19 +1226,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-5300000.0</v>
+        <v>713000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>3200000.0</v>
+        <v>724000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-68600000.0</v>
+        <v>761000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-17900000.0</v>
+        <v>788000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-4200000.0</v>
+        <v>767000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>785400000.0</v>
@@ -2141,7 +2141,7 @@
         <v>4708000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>5070000000.0</v>
+        <v>4929800000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>4956200000.0</v>
@@ -2195,7 +2195,7 @@
         <v>5054000000.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>5257000000.0</v>
+        <v>5116500000.0</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>5130100000.0</v>
